--- a/Code/Results/Cases/Case_4_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.36866783261928</v>
+        <v>5.035494849214842</v>
       </c>
       <c r="C2">
-        <v>1.551974150924082</v>
+        <v>1.12659492521243</v>
       </c>
       <c r="D2">
-        <v>0.1603402716274474</v>
+        <v>0.346528289970081</v>
       </c>
       <c r="E2">
-        <v>0.01885736886603517</v>
+        <v>0.05903769800093972</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008572668084626917</v>
+        <v>0.002780563059324228</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.10826506023164</v>
+        <v>7.191460915097792</v>
       </c>
       <c r="J2">
-        <v>0.03629570775600044</v>
+        <v>0.01218124864221082</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7191435981638534</v>
+        <v>1.04832652519147</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.987266281438735</v>
+        <v>5.028737139167561</v>
       </c>
       <c r="C3">
-        <v>1.350917238655938</v>
+        <v>1.086597679444651</v>
       </c>
       <c r="D3">
-        <v>0.152040874609277</v>
+        <v>0.3468041363828789</v>
       </c>
       <c r="E3">
-        <v>0.01906043187550011</v>
+        <v>0.05925245021986281</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008739006967719452</v>
+        <v>0.002789629326258581</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.020382087767246</v>
+        <v>6.893310474225046</v>
       </c>
       <c r="J3">
-        <v>0.03107597982025823</v>
+        <v>0.01075984553900611</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6536902436218099</v>
+        <v>1.04052333215995</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.767914913906907</v>
+        <v>5.029255004330651</v>
       </c>
       <c r="C4">
-        <v>1.232293908491158</v>
+        <v>1.062833105112588</v>
       </c>
       <c r="D4">
-        <v>0.1472918333501525</v>
+        <v>0.3471178087621354</v>
       </c>
       <c r="E4">
-        <v>0.01919528106673196</v>
+        <v>0.05939301337577252</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008842383787300981</v>
+        <v>0.002795473260195666</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.371835952751098</v>
+        <v>6.710555348881854</v>
       </c>
       <c r="J4">
-        <v>0.02796813931532682</v>
+        <v>0.009884759872836213</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6154701045636841</v>
+        <v>1.036297381374538</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.68177083070043</v>
+        <v>5.030634816663508</v>
       </c>
       <c r="C5">
-        <v>1.184983937325342</v>
+        <v>1.053346058508509</v>
       </c>
       <c r="D5">
-        <v>0.1454347853235589</v>
+        <v>0.347281871244725</v>
       </c>
       <c r="E5">
-        <v>0.01925273817947248</v>
+        <v>0.05945248899659838</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008884903295431559</v>
+        <v>0.002797924730585573</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.111589844820315</v>
+        <v>6.636144109231253</v>
       </c>
       <c r="J5">
-        <v>0.02672150968522402</v>
+        <v>0.00952749221420035</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6003268356867295</v>
+        <v>1.034716767028357</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.667649699001799</v>
+        <v>5.030934387539162</v>
       </c>
       <c r="C6">
-        <v>1.177185485098732</v>
+        <v>1.05178258295814</v>
       </c>
       <c r="D6">
-        <v>0.145130909383127</v>
+        <v>0.3473113010941447</v>
       </c>
       <c r="E6">
-        <v>0.01926242888562291</v>
+        <v>0.0594624976331779</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008891989464761851</v>
+        <v>0.002798336033484394</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.068597857898055</v>
+        <v>6.623791544624567</v>
       </c>
       <c r="J6">
-        <v>0.02651558480307159</v>
+        <v>0.009468125965881313</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5978367027560694</v>
+        <v>1.034462834889084</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.766740602657308</v>
+        <v>5.029268886817079</v>
       </c>
       <c r="C7">
-        <v>1.231651922938454</v>
+        <v>1.062704364143599</v>
       </c>
       <c r="D7">
-        <v>0.1472664827848504</v>
+        <v>0.3471198746981372</v>
       </c>
       <c r="E7">
-        <v>0.01919604587076273</v>
+        <v>0.0593938065889148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008842955532770249</v>
+        <v>0.002795506037518888</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.36831084612885</v>
+        <v>6.70955157779045</v>
       </c>
       <c r="J7">
-        <v>0.0279512520637013</v>
+        <v>0.009879944419509457</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6152642061092024</v>
+        <v>1.036275492574745</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.233765809495651</v>
+        <v>5.032193159116559</v>
       </c>
       <c r="C8">
-        <v>1.481528604069126</v>
+        <v>1.112637613546326</v>
       </c>
       <c r="D8">
-        <v>0.1574008234072437</v>
+        <v>0.346593421798417</v>
       </c>
       <c r="E8">
-        <v>0.01892523960187953</v>
+        <v>0.05910994167948758</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008629815269019663</v>
+        <v>0.002783631763292038</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.728587447354528</v>
+        <v>7.088584972190347</v>
       </c>
       <c r="J8">
-        <v>0.03447281638742439</v>
+        <v>0.01169158826046157</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6961256368608417</v>
+        <v>1.04551827217071</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.294004631730388</v>
+        <v>5.075195063219894</v>
       </c>
       <c r="C9">
-        <v>2.019875888282968</v>
+        <v>1.216973474420683</v>
       </c>
       <c r="D9">
-        <v>0.1805154502444424</v>
+        <v>0.3467086424010546</v>
       </c>
       <c r="E9">
-        <v>0.01847800879463124</v>
+        <v>0.05862207281484322</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008217381446761524</v>
+        <v>0.002762531498023111</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.59581392374446</v>
+        <v>7.835053636736717</v>
       </c>
       <c r="J9">
-        <v>0.04828293144010942</v>
+        <v>0.01522924138902937</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8737652376628375</v>
+        <v>1.068160272567127</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.208526290838734</v>
+        <v>5.129862504543667</v>
       </c>
       <c r="C10">
-        <v>2.462609598030497</v>
+        <v>1.297716400405534</v>
       </c>
       <c r="D10">
-        <v>0.2003326265047463</v>
+        <v>0.3474972546098343</v>
       </c>
       <c r="E10">
-        <v>0.01820675476163713</v>
+        <v>0.05830519372862586</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007910126620176428</v>
+        <v>0.002748341013796141</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.90398414147887</v>
+        <v>8.386485297042725</v>
       </c>
       <c r="J10">
-        <v>0.05949693617395724</v>
+        <v>0.01782446174347285</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.021980883458809</v>
+        <v>1.087597949046966</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.668859303892702</v>
+        <v>5.159824342801301</v>
       </c>
       <c r="C11">
-        <v>2.679768460346054</v>
+        <v>1.335375727169719</v>
       </c>
       <c r="D11">
-        <v>0.2102272705607788</v>
+        <v>0.3480099319279901</v>
       </c>
       <c r="E11">
-        <v>0.01809800868804556</v>
+        <v>0.05816998191392297</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007767086080480697</v>
+        <v>0.002742165882059419</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.02223876590074</v>
+        <v>8.63823410441637</v>
       </c>
       <c r="J11">
-        <v>0.0649690198429056</v>
+        <v>0.01900541996751315</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.095127266902551</v>
+        <v>1.097060498781332</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.851270929628242</v>
+        <v>5.171909283178593</v>
       </c>
       <c r="C12">
-        <v>2.764899836758275</v>
+        <v>1.349773085534309</v>
       </c>
       <c r="D12">
-        <v>0.214130744887683</v>
+        <v>0.348226290381902</v>
       </c>
       <c r="E12">
-        <v>0.01805921719754622</v>
+        <v>0.05812005990303115</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007712182016767674</v>
+        <v>0.002739867468752209</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.45829127481096</v>
+        <v>8.733712921402287</v>
       </c>
       <c r="J12">
-        <v>0.067110530765639</v>
+        <v>0.0194527659292234</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.123863896850054</v>
+        <v>1.10073381360732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.811592088280463</v>
+        <v>5.169273597542656</v>
       </c>
       <c r="C13">
-        <v>2.746424201359389</v>
+        <v>1.346666233207372</v>
       </c>
       <c r="D13">
-        <v>0.2132825206249009</v>
+        <v>0.3481787041581299</v>
       </c>
       <c r="E13">
-        <v>0.01806745971754742</v>
+        <v>0.05813075467027495</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000772404454339519</v>
+        <v>0.002740360700212935</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.3637662221808</v>
+        <v>8.713143026904561</v>
       </c>
       <c r="J13">
-        <v>0.0666459238492294</v>
+        <v>0.0193564141998479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.117624668521813</v>
+        <v>1.099938680365028</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.683692429052371</v>
+        <v>5.160803727725693</v>
       </c>
       <c r="C14">
-        <v>2.686709874745645</v>
+        <v>1.336557451535839</v>
       </c>
       <c r="D14">
-        <v>0.2105450690438317</v>
+        <v>0.3480272860774392</v>
       </c>
       <c r="E14">
-        <v>0.01809476741232974</v>
+        <v>0.05816584918291667</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007762585702471014</v>
+        <v>0.002741975990916272</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.05784180563217</v>
+        <v>8.646086155589387</v>
       </c>
       <c r="J14">
-        <v>0.06514370361558974</v>
+        <v>0.01904222001680722</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.09746918692727</v>
+        <v>1.097360894766013</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.606464358186656</v>
+        <v>5.15571213417121</v>
       </c>
       <c r="C15">
-        <v>2.650532563592719</v>
+        <v>1.330383409453646</v>
       </c>
       <c r="D15">
-        <v>0.2088897375463858</v>
+        <v>0.3479374342161776</v>
       </c>
       <c r="E15">
-        <v>0.01811181542160156</v>
+        <v>0.05818751208642414</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007786087889784453</v>
+        <v>0.002742970599116568</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.87219071373312</v>
+        <v>8.60503155996895</v>
       </c>
       <c r="J15">
-        <v>0.06423314202957187</v>
+        <v>0.01884978824408279</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.085265981352876</v>
+        <v>1.095793680273289</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.179469806680913</v>
+        <v>5.128007479452435</v>
       </c>
       <c r="C16">
-        <v>2.448784730967986</v>
+        <v>1.295274222810463</v>
       </c>
       <c r="D16">
-        <v>0.1997060701510804</v>
+        <v>0.3474668544790376</v>
       </c>
       <c r="E16">
-        <v>0.01821417808318593</v>
+        <v>0.05831420952234811</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007919387731026361</v>
+        <v>0.002748750184452063</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.83249695827348</v>
+        <v>8.370052523695648</v>
       </c>
       <c r="J16">
-        <v>0.05914804771143878</v>
+        <v>0.01774729847011969</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.017332717060413</v>
+        <v>1.086992103104677</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.929944424361111</v>
+        <v>5.112320730327042</v>
       </c>
       <c r="C17">
-        <v>2.329449565975324</v>
+        <v>1.273975914156324</v>
       </c>
       <c r="D17">
-        <v>0.1943163570941664</v>
+        <v>0.3472176527727413</v>
       </c>
       <c r="E17">
-        <v>0.01828089561570234</v>
+        <v>0.05839421960250935</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008000158212024648</v>
+        <v>0.002752367312059766</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.21390325161005</v>
+        <v>8.226143366559285</v>
       </c>
       <c r="J17">
-        <v>0.05613346537368358</v>
+        <v>0.0170711159657202</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9772578674116801</v>
+        <v>1.081752084674946</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.790467386417163</v>
+        <v>5.103777124845124</v>
       </c>
       <c r="C18">
-        <v>2.262247572012086</v>
+        <v>1.261812943871917</v>
       </c>
       <c r="D18">
-        <v>0.1912969258694233</v>
+        <v>0.3470888022274465</v>
       </c>
       <c r="E18">
-        <v>0.01832062685143754</v>
+        <v>0.05844108090324251</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008046327318166137</v>
+        <v>0.002754474180061474</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.8643249324297</v>
+        <v>8.143454240200697</v>
       </c>
       <c r="J18">
-        <v>0.05443326939441562</v>
+        <v>0.01668222399479902</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9547306505898518</v>
+        <v>1.07879649238987</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.743892807757845</v>
+        <v>5.100966477427619</v>
       </c>
       <c r="C19">
-        <v>2.239724446667594</v>
+        <v>1.257709666899643</v>
       </c>
       <c r="D19">
-        <v>0.1902876560368014</v>
+        <v>0.3470476607801203</v>
       </c>
       <c r="E19">
-        <v>0.01833430527873325</v>
+        <v>0.05845709205271543</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008061916884827573</v>
+        <v>0.002755192071760086</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.7469596466436</v>
+        <v>8.115470953112663</v>
       </c>
       <c r="J19">
-        <v>0.05386298759789554</v>
+        <v>0.01655055441208475</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9471875274352328</v>
+        <v>1.077805771762598</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.956077489718894</v>
+        <v>5.113940989966579</v>
       </c>
       <c r="C20">
-        <v>2.342000331689007</v>
+        <v>1.27623410358018</v>
       </c>
       <c r="D20">
-        <v>0.1948815694947257</v>
+        <v>0.347242681127625</v>
       </c>
       <c r="E20">
-        <v>0.01827365125554792</v>
+        <v>0.05838561532865238</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007991591559189472</v>
+        <v>0.002751979533403199</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.27909215625985</v>
+        <v>8.241453961809299</v>
       </c>
       <c r="J20">
-        <v>0.05645078249617086</v>
+        <v>0.0171430929775056</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.981468436439485</v>
+        <v>1.082303850751998</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.721023603524486</v>
+        <v>5.163271422273624</v>
       </c>
       <c r="C21">
-        <v>2.704164763401138</v>
+        <v>1.3395229143905</v>
       </c>
       <c r="D21">
-        <v>0.2113445906280447</v>
+        <v>0.3480711575411561</v>
       </c>
       <c r="E21">
-        <v>0.01808667886284576</v>
+        <v>0.05815550638496392</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007751287788288907</v>
+        <v>0.00274150045831709</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.14733117475816</v>
+        <v>8.665778252081338</v>
       </c>
       <c r="J21">
-        <v>0.06558290722998095</v>
+        <v>0.01913450187889509</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.103359141629994</v>
+        <v>1.09811560185787</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.269369649652504</v>
+        <v>5.199822681602484</v>
       </c>
       <c r="C22">
-        <v>2.958202350766385</v>
+        <v>1.381683412628263</v>
       </c>
       <c r="D22">
-        <v>0.2230380536479828</v>
+        <v>0.3487421645022835</v>
       </c>
       <c r="E22">
-        <v>0.01797862454266319</v>
+        <v>0.05801257385386371</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007589745531038083</v>
+        <v>0.002734884636950225</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.44369491197943</v>
+        <v>8.943964034343367</v>
       </c>
       <c r="J22">
-        <v>0.07196700212089269</v>
+        <v>0.02043687695633878</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.189222460339096</v>
+        <v>1.108974813839382</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.971556321709272</v>
+        <v>5.179917874005184</v>
       </c>
       <c r="C23">
-        <v>2.820767080799328</v>
+        <v>1.359107564526312</v>
       </c>
       <c r="D23">
-        <v>0.2166990955663266</v>
+        <v>0.3483721528310753</v>
       </c>
       <c r="E23">
-        <v>0.01803487611623344</v>
+        <v>0.05808817912579745</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007676485923950871</v>
+        <v>0.002738394423648645</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.74375415604516</v>
+        <v>8.795405945241214</v>
       </c>
       <c r="J23">
-        <v>0.06851493686933452</v>
+        <v>0.01974166520606957</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.14273882506842</v>
+        <v>1.103130688318686</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.944250461153217</v>
+        <v>5.113206991825223</v>
       </c>
       <c r="C24">
-        <v>2.336321797992071</v>
+        <v>1.275212921855541</v>
       </c>
       <c r="D24">
-        <v>0.1946257924621619</v>
+        <v>0.3472313209034041</v>
       </c>
       <c r="E24">
-        <v>0.01827692216933263</v>
+        <v>0.05838950263428266</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007995465355614684</v>
+        <v>0.002752154762909022</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.24960157659419</v>
+        <v>8.234531899230774</v>
       </c>
       <c r="J24">
-        <v>0.05630722200161387</v>
+        <v>0.01711055263050554</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.97956325761416</v>
+        <v>1.082054219942563</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.987471936892575</v>
+        <v>5.059536363319978</v>
       </c>
       <c r="C25">
-        <v>1.867470742220348</v>
+        <v>1.188043034923112</v>
       </c>
       <c r="D25">
-        <v>0.1738379339656433</v>
+        <v>0.3465541807205454</v>
       </c>
       <c r="E25">
-        <v>0.01858949856706449</v>
+        <v>0.05874672919719925</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000832904922032946</v>
+        <v>0.002768007831943586</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.79156120958405</v>
+        <v>7.63266480485197</v>
       </c>
       <c r="J25">
-        <v>0.04439772350968951</v>
+        <v>0.01427328100709957</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8231207143809058</v>
+        <v>1.06154648783891</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.035494849214842</v>
+        <v>3.368667832619224</v>
       </c>
       <c r="C2">
-        <v>1.12659492521243</v>
+        <v>1.551974150924423</v>
       </c>
       <c r="D2">
-        <v>0.346528289970081</v>
+        <v>0.1603402716271631</v>
       </c>
       <c r="E2">
-        <v>0.05903769800093972</v>
+        <v>0.01885736886604139</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002780563059324228</v>
+        <v>0.0008572668084632859</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.191460915097792</v>
+        <v>10.10826506023153</v>
       </c>
       <c r="J2">
-        <v>0.01218124864221082</v>
+        <v>0.03629570775617807</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.04832652519147</v>
+        <v>0.7191435981638534</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.028737139167561</v>
+        <v>2.987266281438565</v>
       </c>
       <c r="C3">
-        <v>1.086597679444651</v>
+        <v>1.350917238655882</v>
       </c>
       <c r="D3">
-        <v>0.3468041363828789</v>
+        <v>0.1520408746096891</v>
       </c>
       <c r="E3">
-        <v>0.05925245021986281</v>
+        <v>0.01906043187553674</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002789629326258581</v>
+        <v>0.0008739006968586593</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.893310474225046</v>
+        <v>9.020382087767246</v>
       </c>
       <c r="J3">
-        <v>0.01075984553900611</v>
+        <v>0.03107597982025112</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.04052333215995</v>
+        <v>0.6536902436218242</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.029255004330651</v>
+        <v>2.767914913906907</v>
       </c>
       <c r="C4">
-        <v>1.062833105112588</v>
+        <v>1.232293908491101</v>
       </c>
       <c r="D4">
-        <v>0.3471178087621354</v>
+        <v>0.147291833350053</v>
       </c>
       <c r="E4">
-        <v>0.05939301337577252</v>
+        <v>0.01919528106673907</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002795473260195666</v>
+        <v>0.0008842383785890289</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.710555348881854</v>
+        <v>8.37183595275124</v>
       </c>
       <c r="J4">
-        <v>0.009884759872836213</v>
+        <v>0.02796813931539077</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.036297381374538</v>
+        <v>0.6154701045639257</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.030634816663508</v>
+        <v>2.6817708307006</v>
       </c>
       <c r="C5">
-        <v>1.053346058508509</v>
+        <v>1.184983937325342</v>
       </c>
       <c r="D5">
-        <v>0.347281871244725</v>
+        <v>0.1454347853242908</v>
       </c>
       <c r="E5">
-        <v>0.05945248899659838</v>
+        <v>0.01925273817957418</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002797924730585573</v>
+        <v>0.0008884903293738704</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.636144109231253</v>
+        <v>8.111589844820514</v>
       </c>
       <c r="J5">
-        <v>0.00952749221420035</v>
+        <v>0.02672150968507481</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.034716767028357</v>
+        <v>0.6003268356868716</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.030934387539162</v>
+        <v>2.667649699001629</v>
       </c>
       <c r="C6">
-        <v>1.05178258295814</v>
+        <v>1.177185485098562</v>
       </c>
       <c r="D6">
-        <v>0.3473113010941447</v>
+        <v>0.1451309093827078</v>
       </c>
       <c r="E6">
-        <v>0.0594624976331779</v>
+        <v>0.01926242888563001</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002798336033484394</v>
+        <v>0.0008891989464608836</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.623791544624567</v>
+        <v>8.068597857898197</v>
       </c>
       <c r="J6">
-        <v>0.009468125965881313</v>
+        <v>0.02651558480309291</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.034462834889084</v>
+        <v>0.5978367027559841</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.029268886817079</v>
+        <v>2.766740602657478</v>
       </c>
       <c r="C7">
-        <v>1.062704364143599</v>
+        <v>1.231651922938795</v>
       </c>
       <c r="D7">
-        <v>0.3471198746981372</v>
+        <v>0.147266482784481</v>
       </c>
       <c r="E7">
-        <v>0.0593938065889148</v>
+        <v>0.01919604587084267</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002795506037518888</v>
+        <v>0.0008842955531429143</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.70955157779045</v>
+        <v>8.368310846128963</v>
       </c>
       <c r="J7">
-        <v>0.009879944419509457</v>
+        <v>0.02795125206360183</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.036275492574745</v>
+        <v>0.6152642061091029</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.032193159116559</v>
+        <v>3.233765809495992</v>
       </c>
       <c r="C8">
-        <v>1.112637613546326</v>
+        <v>1.481528604069581</v>
       </c>
       <c r="D8">
-        <v>0.346593421798417</v>
+        <v>0.1574008234078264</v>
       </c>
       <c r="E8">
-        <v>0.05910994167948758</v>
+        <v>0.01892523960194259</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002783631763292038</v>
+        <v>0.0008629815267560055</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.088584972190347</v>
+        <v>9.728587447354727</v>
       </c>
       <c r="J8">
-        <v>0.01169158826046157</v>
+        <v>0.03447281638741018</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.04551827217071</v>
+        <v>0.6961256368607565</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.075195063219894</v>
+        <v>4.294004631730161</v>
       </c>
       <c r="C9">
-        <v>1.216973474420683</v>
+        <v>2.019875888283138</v>
       </c>
       <c r="D9">
-        <v>0.3467086424010546</v>
+        <v>0.1805154502447692</v>
       </c>
       <c r="E9">
-        <v>0.05862207281484322</v>
+        <v>0.01847800879458084</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002762531498023111</v>
+        <v>0.0008217381449356012</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.835053636736717</v>
+        <v>12.59581392374423</v>
       </c>
       <c r="J9">
-        <v>0.01522924138902937</v>
+        <v>0.04828293144038298</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.068160272567127</v>
+        <v>0.8737652376628944</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.129862504543667</v>
+        <v>5.208526290838506</v>
       </c>
       <c r="C10">
-        <v>1.297716400405534</v>
+        <v>2.462609598029417</v>
       </c>
       <c r="D10">
-        <v>0.3474972546098343</v>
+        <v>0.2003326265046468</v>
       </c>
       <c r="E10">
-        <v>0.05830519372862586</v>
+        <v>0.01820675476160716</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002748341013796141</v>
+        <v>0.000791012662016162</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.386485297042725</v>
+        <v>14.90398414147887</v>
       </c>
       <c r="J10">
-        <v>0.01782446174347285</v>
+        <v>0.05949693617412066</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.087597949046966</v>
+        <v>1.021980883458752</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.159824342801301</v>
+        <v>5.668859303891907</v>
       </c>
       <c r="C11">
-        <v>1.335375727169719</v>
+        <v>2.67976846034577</v>
       </c>
       <c r="D11">
-        <v>0.3480099319279901</v>
+        <v>0.2102272705611341</v>
       </c>
       <c r="E11">
-        <v>0.05816998191392297</v>
+        <v>0.01809800868802025</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002742165882059419</v>
+        <v>0.0007767086084315977</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.63823410441637</v>
+        <v>16.02223876590091</v>
       </c>
       <c r="J11">
-        <v>0.01900541996751315</v>
+        <v>0.06496901984258585</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.097060498781332</v>
+        <v>1.095127266902608</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.171909283178593</v>
+        <v>5.851270929628583</v>
       </c>
       <c r="C12">
-        <v>1.349773085534309</v>
+        <v>2.764899836758332</v>
       </c>
       <c r="D12">
-        <v>0.348226290381902</v>
+        <v>0.2141307448874414</v>
       </c>
       <c r="E12">
-        <v>0.05812005990303115</v>
+        <v>0.01805921719749426</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002739867468752209</v>
+        <v>0.0007712182016201656</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.733712921402287</v>
+        <v>16.45829127481068</v>
       </c>
       <c r="J12">
-        <v>0.0194527659292234</v>
+        <v>0.06711053076553242</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.10073381360732</v>
+        <v>1.123863896850111</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.169273597542656</v>
+        <v>5.811592088280634</v>
       </c>
       <c r="C13">
-        <v>1.346666233207372</v>
+        <v>2.746424201360753</v>
       </c>
       <c r="D13">
-        <v>0.3481787041581299</v>
+        <v>0.2132825206251425</v>
       </c>
       <c r="E13">
-        <v>0.05813075467027495</v>
+        <v>0.01806745971754609</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002740360700212935</v>
+        <v>0.0007724044545307434</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.713143026904561</v>
+        <v>16.36376622218091</v>
       </c>
       <c r="J13">
-        <v>0.0193564141998479</v>
+        <v>0.06664592384959889</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.099938680365028</v>
+        <v>1.1176246685217</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.160803727725693</v>
+        <v>5.683692429052201</v>
       </c>
       <c r="C14">
-        <v>1.336557451535839</v>
+        <v>2.686709874745191</v>
       </c>
       <c r="D14">
-        <v>0.3480272860774392</v>
+        <v>0.2105450690447412</v>
       </c>
       <c r="E14">
-        <v>0.05816584918291667</v>
+        <v>0.01809476741223159</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002741975990916272</v>
+        <v>0.000776258569867296</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.646086155589387</v>
+        <v>16.05784180563194</v>
       </c>
       <c r="J14">
-        <v>0.01904222001680722</v>
+        <v>0.06514370361556132</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.097360894766013</v>
+        <v>1.097469186927412</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.15571213417121</v>
+        <v>5.606464358186372</v>
       </c>
       <c r="C15">
-        <v>1.330383409453646</v>
+        <v>2.650532563592265</v>
       </c>
       <c r="D15">
-        <v>0.3479374342161776</v>
+        <v>0.2088897375471817</v>
       </c>
       <c r="E15">
-        <v>0.05818751208642414</v>
+        <v>0.01811181542151274</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002742970599116568</v>
+        <v>0.0007786087889735342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.60503155996895</v>
+        <v>15.87219071373255</v>
       </c>
       <c r="J15">
-        <v>0.01884978824408279</v>
+        <v>0.06423314202945818</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.095793680273289</v>
+        <v>1.085265981352876</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.128007479452435</v>
+        <v>5.1794698066808</v>
       </c>
       <c r="C16">
-        <v>1.295274222810463</v>
+        <v>2.448784730968214</v>
       </c>
       <c r="D16">
-        <v>0.3474668544790376</v>
+        <v>0.1997060701506257</v>
       </c>
       <c r="E16">
-        <v>0.05831420952234811</v>
+        <v>0.01821417808319792</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002748750184452063</v>
+        <v>0.000791938772923988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.370052523695648</v>
+        <v>14.83249695827359</v>
       </c>
       <c r="J16">
-        <v>0.01774729847011969</v>
+        <v>0.05914804771164484</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.086992103104677</v>
+        <v>1.017332717059816</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.112320730327042</v>
+        <v>4.929944424361452</v>
       </c>
       <c r="C17">
-        <v>1.273975914156324</v>
+        <v>2.329449565974585</v>
       </c>
       <c r="D17">
-        <v>0.3472176527727413</v>
+        <v>0.1943163570951043</v>
       </c>
       <c r="E17">
-        <v>0.05839421960250935</v>
+        <v>0.01828089561576096</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002752367312059766</v>
+        <v>0.0008000158215759403</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.226143366559285</v>
+        <v>14.21390325160985</v>
       </c>
       <c r="J17">
-        <v>0.0170711159657202</v>
+        <v>0.05613346537380437</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.081752084674946</v>
+        <v>0.9772578674117653</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.103777124845124</v>
+        <v>4.790467386417049</v>
       </c>
       <c r="C18">
-        <v>1.261812943871917</v>
+        <v>2.262247572012029</v>
       </c>
       <c r="D18">
-        <v>0.3470888022274465</v>
+        <v>0.1912969258689827</v>
       </c>
       <c r="E18">
-        <v>0.05844108090324251</v>
+        <v>0.0183206268514966</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002754474180061474</v>
+        <v>0.0008046327315235963</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.143454240200697</v>
+        <v>13.86432493242984</v>
       </c>
       <c r="J18">
-        <v>0.01668222399479902</v>
+        <v>0.05443326939425219</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.07879649238987</v>
+        <v>0.9547306505895392</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.100966477427619</v>
+        <v>4.7438928077583</v>
       </c>
       <c r="C19">
-        <v>1.257709666899643</v>
+        <v>2.239724446668731</v>
       </c>
       <c r="D19">
-        <v>0.3470476607801203</v>
+        <v>0.1902876560370146</v>
       </c>
       <c r="E19">
-        <v>0.05845709205271543</v>
+        <v>0.0183343052786169</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002755192071760086</v>
+        <v>0.0008061916886782225</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.115470953112663</v>
+        <v>13.74695964664392</v>
       </c>
       <c r="J19">
-        <v>0.01655055441208475</v>
+        <v>0.0538629875978387</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.077805771762598</v>
+        <v>0.947187527435176</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.113940989966579</v>
+        <v>4.956077489719007</v>
       </c>
       <c r="C20">
-        <v>1.27623410358018</v>
+        <v>2.342000331689746</v>
       </c>
       <c r="D20">
-        <v>0.347242681127625</v>
+        <v>0.1948815694940293</v>
       </c>
       <c r="E20">
-        <v>0.05838561532865238</v>
+        <v>0.01827365125547331</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002751979533403199</v>
+        <v>0.0007991591557160629</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.241453961809299</v>
+        <v>14.27909215625974</v>
       </c>
       <c r="J20">
-        <v>0.0171430929775056</v>
+        <v>0.05645078249619218</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.082303850751998</v>
+        <v>0.9814684364393145</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.163271422273624</v>
+        <v>5.721023603524884</v>
       </c>
       <c r="C21">
-        <v>1.3395229143905</v>
+        <v>2.704164763400456</v>
       </c>
       <c r="D21">
-        <v>0.3480711575411561</v>
+        <v>0.21134459062894</v>
       </c>
       <c r="E21">
-        <v>0.05815550638496392</v>
+        <v>0.01808667886278625</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00274150045831709</v>
+        <v>0.0007751287790259652</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.665778252081338</v>
+        <v>16.14733117475794</v>
       </c>
       <c r="J21">
-        <v>0.01913450187889509</v>
+        <v>0.06558290722976778</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.09811560185787</v>
+        <v>1.103359141629966</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.199822681602484</v>
+        <v>6.269369649652674</v>
       </c>
       <c r="C22">
-        <v>1.381683412628263</v>
+        <v>2.958202350765077</v>
       </c>
       <c r="D22">
-        <v>0.3487421645022835</v>
+        <v>0.2230380536474996</v>
       </c>
       <c r="E22">
-        <v>0.05801257385386371</v>
+        <v>0.01797862454263122</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002734884636950225</v>
+        <v>0.000758974553469402</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.943964034343367</v>
+        <v>17.44369491197955</v>
       </c>
       <c r="J22">
-        <v>0.02043687695633878</v>
+        <v>0.07196700212071505</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.108974813839382</v>
+        <v>1.189222460339096</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.179917874005184</v>
+        <v>5.9715563217095</v>
       </c>
       <c r="C23">
-        <v>1.359107564526312</v>
+        <v>2.820767080798419</v>
       </c>
       <c r="D23">
-        <v>0.3483721528310753</v>
+        <v>0.2166990955665824</v>
       </c>
       <c r="E23">
-        <v>0.05808817912579745</v>
+        <v>0.01803487611632759</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002738394423648645</v>
+        <v>0.0007676485923948306</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.795405945241214</v>
+        <v>16.74375415604538</v>
       </c>
       <c r="J23">
-        <v>0.01974166520606957</v>
+        <v>0.06851493686946952</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.103130688318686</v>
+        <v>1.142738825068562</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.113206991825223</v>
+        <v>4.944250461153331</v>
       </c>
       <c r="C24">
-        <v>1.275212921855541</v>
+        <v>2.336321797993321</v>
       </c>
       <c r="D24">
-        <v>0.3472313209034041</v>
+        <v>0.1946257924624604</v>
       </c>
       <c r="E24">
-        <v>0.05838950263428266</v>
+        <v>0.01827692216942101</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002752154762909022</v>
+        <v>0.0007995465356599968</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.234531899230774</v>
+        <v>14.24960157659427</v>
       </c>
       <c r="J24">
-        <v>0.01711055263050554</v>
+        <v>0.05630722200150728</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.082054219942563</v>
+        <v>0.9795632576142737</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.059536363319978</v>
+        <v>3.987471936892291</v>
       </c>
       <c r="C25">
-        <v>1.188043034923112</v>
+        <v>1.867470742220405</v>
       </c>
       <c r="D25">
-        <v>0.3465541807205454</v>
+        <v>0.1738379339651601</v>
       </c>
       <c r="E25">
-        <v>0.05874672919719925</v>
+        <v>0.01858949856698611</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002768007831943586</v>
+        <v>0.0008329049218752725</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.63266480485197</v>
+        <v>11.79156120958413</v>
       </c>
       <c r="J25">
-        <v>0.01427328100709957</v>
+        <v>0.04439772351008386</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.06154648783891</v>
+        <v>0.8231207143806785</v>
       </c>
       <c r="M25">
         <v>0</v>
